--- a/Airpay_Automation_Framework_SOTC/AirPayTestData/TestData/Datasheet.xlsx
+++ b/Airpay_Automation_Framework_SOTC/AirPayTestData/TestData/Datasheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AirPayWorkspace\Airpay_Automation_Framework_SOTC\AirPayTestData\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SOTC\Airpay_Automation_Framework_SOTC\AirPayTestData\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="89">
   <si>
     <t>TC_ID</t>
   </si>
@@ -249,49 +249,52 @@
     <t>9970623774@ybx</t>
   </si>
   <si>
+    <t>TC_001_SOCT_Logo_Verify</t>
+  </si>
+  <si>
+    <t>CollectionURL</t>
+  </si>
+  <si>
+    <t>User_Name</t>
+  </si>
+  <si>
+    <t>PWD</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Admin@123</t>
+  </si>
+  <si>
+    <t>TC_001_SOTC_Logo_Verify</t>
+  </si>
+  <si>
+    <t>https://sotc.nowpay.co.in;https://sotc.nowpay.co.in/invoice/index;https://sotc.nowpay.co.in/city/index;https://sotc.nowpay.co.in/city/create;https://sotc.nowpay.co.in/hotel/index;https://sotc.nowpay.co.in/hotel/create;https://sotc.nowpay.co.in/user/index;https://sotc.nowpay.co.in/user/create</t>
+  </si>
+  <si>
+    <t>TC_001_SOTC_PayNow_Invoice_Logo_Verify</t>
+  </si>
+  <si>
+    <t>https://sotc.nowpay.co.in/invoice/</t>
+  </si>
+  <si>
+    <t>Invoice_Link</t>
+  </si>
+  <si>
+    <t>https://sotc.nowpay.co.in</t>
+  </si>
+  <si>
+    <t>SRCXpath</t>
+  </si>
+  <si>
+    <t>https://ma.airpay.co.in/uploads/26856_1549866471.png</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>TC_001_SOCT_Logo_Verify</t>
-  </si>
-  <si>
-    <t>CollectionURL</t>
-  </si>
-  <si>
-    <t>User_Name</t>
-  </si>
-  <si>
-    <t>PWD</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>Admin@123</t>
-  </si>
-  <si>
-    <t>TC_001_SOTC_Logo_Verify</t>
-  </si>
-  <si>
-    <t>https://sotc.nowpay.co.in;https://sotc.nowpay.co.in/invoice/index;https://sotc.nowpay.co.in/city/index;https://sotc.nowpay.co.in/city/create;https://sotc.nowpay.co.in/hotel/index;https://sotc.nowpay.co.in/hotel/create;https://sotc.nowpay.co.in/user/index;https://sotc.nowpay.co.in/user/create</t>
-  </si>
-  <si>
-    <t>TC_001_SOTC_PayNow_Invoice_Logo_Verify</t>
-  </si>
-  <si>
-    <t>https://sotc.nowpay.co.in/invoice/</t>
-  </si>
-  <si>
-    <t>Invoice_Link</t>
-  </si>
-  <si>
-    <t>https://sotc.nowpay.co.in</t>
-  </si>
-  <si>
-    <t>SRCXpath</t>
-  </si>
-  <si>
-    <t>https://ma.airpay.co.in/uploads/26856_1549866471.png</t>
   </si>
 </sst>
 </file>
@@ -987,7 +990,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1068,21 +1071,23 @@
         <v>65</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="21" t="s">
-        <v>77</v>
-      </c>
       <c r="K1" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" s="21"/>
+        <v>85</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="N1" s="27"/>
       <c r="O1" s="21"/>
       <c r="P1" s="21"/>
@@ -1120,13 +1125,13 @@
     </row>
     <row r="2" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>7</v>
@@ -1135,17 +1140,17 @@
         <v>1</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I2" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="40" t="s">
         <v>78</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>79</v>
       </c>
       <c r="M2" s="20" t="s">
         <v>47</v>
@@ -1163,13 +1168,13 @@
     </row>
     <row r="3" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>7</v>
@@ -1178,23 +1183,23 @@
         <v>1</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="40" t="s">
-        <v>79</v>
-      </c>
       <c r="K3" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M3" s="34"/>
       <c r="AE3" s="24"/>
@@ -1208,7 +1213,6 @@
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="31"/>
       <c r="I4" s="32"/>
       <c r="M4" s="34"/>
       <c r="AE4" s="24"/>
@@ -6726,11 +6730,11 @@
     <hyperlink ref="H65" r:id="rId22"/>
     <hyperlink ref="Y66" r:id="rId23"/>
     <hyperlink ref="H66" r:id="rId24"/>
-    <hyperlink ref="H2" display="https://sotc.nowpay.co.in;https://sotc.nowpay.co.in/invoice/index;https://sotc.nowpay.co.in/city/index;https://sotc.nowpay.co.in/city/create;https://sotc.nowpay.co.in/hotel/index;https://sotc.nowpay.co.in/hotel/create;https://sotc.nowpay.co.in/user/index;"/>
     <hyperlink ref="J2" r:id="rId25"/>
     <hyperlink ref="J3" r:id="rId26"/>
     <hyperlink ref="H3" r:id="rId27" display="https://sotc.nowpay.co;https://sotc.nowpay.co.in/invoice/35"/>
     <hyperlink ref="K3" r:id="rId28"/>
+    <hyperlink ref="H2" display="https://sotc.nowpay.co.in;https://sotc.nowpay.co.in/invoice/index;https://sotc.nowpay.co.in/city/index;https://sotc.nowpay.co.in/city/create;https://sotc.nowpay.co.in/hotel/index;https://sotc.nowpay.co.in/hotel/create;https://sotc.nowpay.co.in/user/index;"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId29"/>

--- a/Airpay_Automation_Framework_SOTC/AirPayTestData/TestData/Datasheet.xlsx
+++ b/Airpay_Automation_Framework_SOTC/AirPayTestData/TestData/Datasheet.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="98">
   <si>
     <t>TC_ID</t>
   </si>
@@ -295,6 +295,33 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>TC_001_SinglePageLink_Verify</t>
+  </si>
+  <si>
+    <t>First_Name</t>
+  </si>
+  <si>
+    <t>Last_Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>AmoutField</t>
+  </si>
+  <si>
+    <t>Text_Feed</t>
+  </si>
+  <si>
+    <t>https://qa.nowpay.co.in;https://kktrav.nowpay.co.in;https://rcityvr.nowpay.co.in/;https://bookingsmaker.nowpay.co.in/;http://thesaneermoto.hotelpay.co.in/;http://citrushotel.hotelpay.co.in/;http://thebykeheritagematheranmoto.hotelpay.co.in/</t>
+  </si>
+  <si>
+    <t>Please enter the text</t>
   </si>
 </sst>
 </file>
@@ -558,7 +585,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -631,6 +658,9 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -988,9 +1018,9 @@
   </sheetPr>
   <dimension ref="A1:BE301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1088,12 +1118,24 @@
       <c r="M1" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
+      <c r="N1" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>95</v>
+      </c>
       <c r="T1" s="21"/>
       <c r="U1" s="28"/>
       <c r="V1" s="28"/>
@@ -1174,7 +1216,7 @@
         <v>81</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>7</v>
@@ -1219,15 +1261,48 @@
       <c r="AF4" s="24"/>
       <c r="AG4" s="24"/>
     </row>
-    <row r="5" spans="1:51" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+    <row r="5" spans="1:51" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="24" t="s">
+        <v>89</v>
+      </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="31"/>
+      <c r="H5" s="44" t="s">
+        <v>96</v>
+      </c>
       <c r="I5" s="32"/>
+      <c r="N5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>8454061086</v>
+      </c>
+      <c r="R5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>97</v>
+      </c>
       <c r="AE5" s="24"/>
       <c r="AF5" s="24"/>
       <c r="AG5" s="24"/>
@@ -6735,9 +6810,11 @@
     <hyperlink ref="H3" r:id="rId27" display="https://sotc.nowpay.co;https://sotc.nowpay.co.in/invoice/35"/>
     <hyperlink ref="K3" r:id="rId28"/>
     <hyperlink ref="H2" display="https://sotc.nowpay.co.in;https://sotc.nowpay.co.in/invoice/index;https://sotc.nowpay.co.in/city/index;https://sotc.nowpay.co.in/city/create;https://sotc.nowpay.co.in/hotel/index;https://sotc.nowpay.co.in/hotel/create;https://sotc.nowpay.co.in/user/index;"/>
+    <hyperlink ref="P5" r:id="rId29"/>
+    <hyperlink ref="H5" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId29"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId31"/>
 </worksheet>
 </file>
 
